--- a/Data/BayesClassifierData.xlsx
+++ b/Data/BayesClassifierData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\Matlab\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PatternRecognition\Matlab\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C9ADC-E7B6-4FED-BA0E-1DDC6C5F603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B08F8-13C8-4A50-A459-39076C365911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -355,16 +355,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448AB97F-52F6-4431-BBC5-C54503015109}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1739.94</v>
       </c>
@@ -378,7 +378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>373.3</v>
       </c>
@@ -392,7 +392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1756.77</v>
       </c>
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>864.45</v>
       </c>
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>222.85</v>
       </c>
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>877.88</v>
       </c>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1803.58</v>
       </c>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2352.12</v>
       </c>
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>401.3</v>
       </c>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>363.34</v>
       </c>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1571.17</v>
       </c>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>104.8</v>
       </c>
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>499.85</v>
       </c>
@@ -543,10 +543,10 @@
         <v>2196.2199999999998</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2297.2800000000002</v>
       </c>
@@ -557,10 +557,10 @@
         <v>535.62</v>
       </c>
       <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2092.62</v>
       </c>
@@ -574,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1418.79</v>
       </c>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1845.59</v>
       </c>
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2205.6</v>
       </c>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2949.16</v>
       </c>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1692.62</v>
       </c>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1680.67</v>
       </c>
@@ -658,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2802.88</v>
       </c>
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>172.78</v>
       </c>
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2063.54</v>
       </c>
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1449.58</v>
       </c>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1651.52</v>
       </c>
@@ -728,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>341.59</v>
       </c>
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>291.02</v>
       </c>
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>237.63</v>
       </c>
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1702.8</v>
       </c>
@@ -781,10 +781,10 @@
         <v>2068.7399999999998</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1877.93</v>
       </c>
@@ -795,10 +795,10 @@
         <v>1975.3</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>867.81</v>
       </c>
@@ -809,10 +809,10 @@
         <v>2535.1</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1831.49</v>
       </c>
@@ -823,10 +823,10 @@
         <v>1604.65</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>460.69</v>
       </c>
@@ -837,10 +837,10 @@
         <v>2172.9899999999998</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2374.98</v>
       </c>
@@ -851,10 +851,10 @@
         <v>975.31</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2271.39</v>
       </c>
@@ -865,10 +865,10 @@
         <v>946.7</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1783.64</v>
       </c>
@@ -879,10 +879,10 @@
         <v>2261.31</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>198.83</v>
       </c>
@@ -893,10 +893,10 @@
         <v>2445.08</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1494.63</v>
       </c>
@@ -907,10 +907,10 @@
         <v>2550.5100000000002</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1597.03</v>
       </c>
@@ -921,10 +921,10 @@
         <v>2126.7600000000002</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1598.93</v>
       </c>
@@ -935,10 +935,10 @@
         <v>1623.33</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1243.1300000000001</v>
       </c>
@@ -949,10 +949,10 @@
         <v>3441.07</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2336.31</v>
       </c>
@@ -963,10 +963,10 @@
         <v>1599.63</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>354</v>
       </c>
@@ -977,10 +977,10 @@
         <v>2373.61</v>
       </c>
       <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2144.4699999999998</v>
       </c>
@@ -991,10 +991,10 @@
         <v>591.51</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>426.31</v>
       </c>
@@ -1005,10 +1005,10 @@
         <v>2057.8000000000002</v>
       </c>
       <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1507.13</v>
       </c>
@@ -1019,10 +1019,10 @@
         <v>1954.51</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>343.07</v>
       </c>
@@ -1033,10 +1033,10 @@
         <v>2036.94</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2201.94</v>
       </c>
@@ -1047,10 +1047,10 @@
         <v>935.53</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2232.4299999999998</v>
       </c>
@@ -1061,10 +1061,10 @@
         <v>1298.8699999999999</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1580.1</v>
       </c>
@@ -1075,10 +1075,10 @@
         <v>2463.04</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1962.4</v>
       </c>
@@ -1089,10 +1089,10 @@
         <v>1835.95</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1495.18</v>
       </c>
@@ -1103,10 +1103,10 @@
         <v>3498.02</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1245.27</v>
       </c>
@@ -1117,10 +1117,10 @@
         <v>2937.73</v>
       </c>
       <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>24.22</v>
       </c>
@@ -1131,10 +1131,10 @@
         <v>2145.0100000000002</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1269.07</v>
       </c>
@@ -1145,10 +1145,10 @@
         <v>2701.97</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1802.07</v>
       </c>
@@ -1159,10 +1159,10 @@
         <v>1966.35</v>
       </c>
       <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1817.36</v>
       </c>
@@ -1173,10 +1173,10 @@
         <v>3285.79</v>
       </c>
       <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1860.45</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>1278.1300000000001</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
